--- a/models/recipients.xlsx
+++ b/models/recipients.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Responses" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="218">
   <si>
     <t xml:space="preserve">S.NO</t>
   </si>
@@ -73,23 +73,7 @@
     <t xml:space="preserve">31-10-2023 20:58:26</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ogundare </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Olamide Emmanuel</t>
-    </r>
+    <t xml:space="preserve">Ogundare Olamide Emmanuel</t>
   </si>
   <si>
     <t xml:space="preserve">ogundareolamideemmanuel@gmail.com</t>
@@ -122,13 +106,584 @@
     <t xml:space="preserve">To be Well equipped for the ministries of Christ</t>
   </si>
   <si>
-    <t xml:space="preserve">Ogundare Olamide Emmanuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogundareoemts@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogundareoemts2019@futa.edu.ng</t>
+    <t xml:space="preserve">11-11-2023 21:12:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKEREWUSI OLUWADAMILARE ADEKUSIBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akerewusioluwadamilare@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08160125034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn more about Christ, and fellowship with the family of God.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-11-2023 18:19:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oke Elijah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elijahsundayakinjide@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08137519109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipetu ijesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-11-2023 18:19:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyewumi Mary Abosede </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyewumimary99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09164370889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilesa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 2 &amp; 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manifestation of God power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-11-2023 19:13:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akerewusi motunrayo Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faremolamotunrayoe@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07038201703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To receive all that God has for me at the meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-11-2023 21:10:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ategbero ModupeOluwa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dupsy202@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08030765468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilo Ijesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ be glorified and mighty manifestation of the Spirit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-11-2023 08:02:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akinleye Deborah Ayomide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akinleyeayomidedeborah@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09034776617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osogbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mighty manifestation of the spirit, signs wonders and mighty miracles, souls edified, men saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-11-2023 08:21:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adefokun Daniel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">danielhappy392@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07067871626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My needs are met physically and spiritually </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-11-2023 10:08:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abayomi Temitayo Ezekiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abattayo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08147365480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Becoming like Christ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-11-2023 13:32:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajayi Kehinde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajayikehinde35@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09160841213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Through a Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-11-2023 11:03:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejeh Patience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ejehpatience27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08164916989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be filled with His power,
+My discernment is sharpened </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-11-2023 09:26:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyeniyi Jide Victor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oyeniyiolajide89@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09030982141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength
+Wisdom and insights on God's word </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-11-2023 10:29:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olugbenga Olamide Zipporah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipporaholamide@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09067115951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilesha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burning more for God </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-11-2023 21:36:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronica Olaremi Abiola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olaremiabiola@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09066175731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarity of purpose and more spiritual growth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-11-2023 12:54:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeniran segunjoshua Joshua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adeniranoluwatosinpamilerin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07025727218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osun state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That God should bless me with financial breakthrough and long life to serve him </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2023 13:43:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adefokun Adetumi Ebenezer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adetumiadefokun@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09067389264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More of God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2023 13:46:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olateju idowu  Adeyemi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">olatejuidowu2018@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09052010139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iperindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiritual growth..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2023 13:48:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isola timilehin Adefokun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timileyinisola@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08166240266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More of God in my ministry and life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2023 13:50:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adefokun gideon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09153466159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiritual growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-12-2023 20:57:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeniran oluwatosin iyawo woli Joshua </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08142113705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilesa osun state </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That God should establish me financially and help me to serve his purpose for my life
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08-12-2023 22:46:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agboola Eunice Ololade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lorleybee@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08165668598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be edified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-12-2023 21:03:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olasupo Titilayo Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titilayoelizabeth87@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09166065419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divine intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-12-2023 13:31:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alalade temitayo Shadrach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alaladetemitayoshadrach@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09038979704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiritual awakening,demonstration of the God power and spiritual enlightenment by God's word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-12-2023 13:36:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanbi anuoluwapo blessing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akinwoleesther03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08058131618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial breakthrough and marital breakthrough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-12-2023 13:41:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akanbi Abraham Oluwadamilare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foyinsolami14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09028338500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO BE EDIFIED &amp; TO BE BLESSED SPIRITUALLY &amp; PHYSICALLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-12-2023 23:22:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adegboyega grace adesola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adesolairemide315@goggel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09014476069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilesha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answers to prays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 13:39:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olawole Pamilerin Emmanuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmanuelpamilerin8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08160790579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflect,
+Refresh and
+Re-fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-12-2023 18:54:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akinmoladun Tolulope Temidayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">akinmoladuntemidayohapp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08136409090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibadan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To have personal encounter with Christ in all aspects of my life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-12-2023 15:10:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Olumide Oluyemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oluyemisamuel223@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08133217863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isarun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Jesus much more </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-12-2023 12:06:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajayi Oluwafayokunmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajayioluwafayokunmi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08139015716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibadan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encounter with God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-12-2023 18:44:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajayi Victor Oluwasanmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajayivictor68@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09050733002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marital breakthrough
+Financial breakthrough
+Stagnation is over 
+Start up my business
+Success for my </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-12-2023 18:09:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oladoyin Oluwatomisin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oluwatomisinoladoyin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08139166146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiving clarity and precision on direction of God's leading for my life
+Believing God for finances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-12-2023 18:19:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grace Ikotun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikotunograce@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08130535959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To know more of God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ategbero Isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word2isaac@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -138,10 +693,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -162,12 +718,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -215,7 +766,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,16 +775,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -253,15 +800,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.16"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="47" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -271,7 +823,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -311,14 +863,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -361,21 +913,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
@@ -405,27 +957,27 @@
         <v>26</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
@@ -434,43 +986,1554 @@
         <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="ogundareoemts2019@futa.edu.ng"/>
+    <hyperlink ref="D35" r:id="rId1" display="word2isaac@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/models/recipients.xlsx
+++ b/models/recipients.xlsx
@@ -34,40 +34,40 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">3. PHONE NUMBER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. GENDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. TOWN/VILLAGE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. ARE YOU A BELIEVER?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. ARE YOU A MEMBER OF WORD POINT MINISTRIES? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. HOW DID YOU HEAR ABOUT THIS CAMP MEETING? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. ARE YOU AWARE THE MEETING IS SLATED TO HOLD ON 27TH - 31ST DECEMBER, 2023? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. WILL YOU BE PHYSICALLY PRESENT?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. WHICH OF THE DAY WILL YOU BE PRESENT? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. DO YOU HAVE HEALTH CHALLENGE? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. WHAT ARE YOUR EXPECTATIONS FOR THIS MEETING? </t>
+    <t xml:space="preserve">Phone No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town/Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you a believer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you a member of Word Point Ministries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How did you hear about this Camp Meeting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you aware thatCamp holds from 27th- 31st Dec., 2023? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you be present?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which day(s) will you be present?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have any health challenge?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is (are) your expectation(s)?</t>
   </si>
   <si>
     <t xml:space="preserve">31-10-2023 20:58:26</t>
@@ -717,7 +717,7 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -802,12 +802,13 @@
   </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C24:C25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.16"/>
